--- a/biology/Zoologie/Chiasmocleis_shudikarensis/Chiasmocleis_shudikarensis.xlsx
+++ b/biology/Zoologie/Chiasmocleis_shudikarensis/Chiasmocleis_shudikarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis shudikarensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis shudikarensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil, au Guyana, en Guyane et au Suriname. Elle se rencontre jusqu'à 200 m d'altitude[1],[2].
-Il s'agit du Microhylidae le plus commun de Guyane. La présence de cette espèce se remarque essentiellement durant la saison de reproduction mais s'avère plus discrète le reste du temps[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil, au Guyana, en Guyane et au Suriname. Elle se rencontre jusqu'à 200 m d'altitude,.
+Il s'agit du Microhylidae le plus commun de Guyane. La présence de cette espèce se remarque essentiellement durant la saison de reproduction mais s'avère plus discrète le reste du temps.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis shudikarensis mesure environ 25 mm. Sa face dorsale est gris foncé avec une tache irrégulière noire au niveau de l'aine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis shudikarensis mesure environ 25 mm. Sa face dorsale est gris foncé avec une tache irrégulière noire au niveau de l'aine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de shudikar et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Shudikar-wau, en Guyane britannique sur les rives de l'Essequibo, non loin de la frontière brésilienne[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de shudikar et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Shudikar-wau, en Guyane britannique sur les rives de l'Essequibo, non loin de la frontière brésilienne.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dunn, 1949 : Notes on South American frogs of the family Microhylidae. American Museum Novitates, no 1419, p. 1-21, (texte intégral).</t>
         </is>
